--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1908.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1908.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.87790775713642</v>
+        <v>1.872931361198425</v>
       </c>
       <c r="B1">
-        <v>3.026316124518714</v>
+        <v>3.869392871856689</v>
       </c>
       <c r="C1">
-        <v>2.520725833671271</v>
+        <v>2.541174650192261</v>
       </c>
       <c r="D1">
-        <v>2.111763620887276</v>
+        <v>0.9171818494796753</v>
       </c>
       <c r="E1">
-        <v>1.483734071603038</v>
+        <v>0.6013784408569336</v>
       </c>
     </row>
   </sheetData>
